--- a/data/trans_camb/P41_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,96</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,83</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,72</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 51,33</t>
+          <t>-15,02; 18,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 59,68</t>
+          <t>-9,66; 28,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 61,33</t>
+          <t>-7,6; 33,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 35,37</t>
+          <t>-11,29; 27,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 18,68</t>
+          <t>-15,46; 21,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 19,22</t>
+          <t>-21,89; 14,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 32,65</t>
+          <t>-16,33; 18,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 28,35</t>
+          <t>-22,21; 12,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 32,35</t>
+          <t>-11,12; 15,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 15,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 18,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 14,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>80,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,94%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 189,87</t>
+          <t>-78,96; 486,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 234,07</t>
+          <t>-54,67; 726,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 284,53</t>
+          <t>-54,54; 765,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 62,07</t>
+          <t>-63,05; 658,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 28,99</t>
+          <t>-49,94; 152,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 30,02</t>
+          <t>-65,81; 94,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 65,9</t>
+          <t>-51,43; 124,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 55,67</t>
+          <t>-69,42; 83,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 64,6</t>
+          <t>-43,2; 120,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,53; 127,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; 144,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,08; 109,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>27,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,62</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,04</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 38,3</t>
+          <t>-6,23; 47,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 24,63</t>
+          <t>-6,95; 45,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 37,64</t>
+          <t>3,68; 56,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 14,08</t>
+          <t>-22,67; 53,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 33,06</t>
+          <t>-25,33; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 28,57</t>
+          <t>-10,87; 23,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 20,58</t>
+          <t>-17,32; 16,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 21,15</t>
+          <t>-23,32; 7,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 26,44</t>
+          <t>-9,92; 22,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 28,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 34,87</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,73; 30,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>74,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>141,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>-40,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>-34,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 116,44</t>
+          <t>-30,05; 445,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 85,9</t>
+          <t>-32,06; 440,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 122,29</t>
+          <t>7,65; 506,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 38,7</t>
+          <t>-100,0; 751,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 94,39</t>
+          <t>-75,4; 33,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 74,9</t>
+          <t>-33,97; 134,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 53,46</t>
+          <t>-54,41; 90,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 57,28</t>
+          <t>-71,08; 46,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 72,67</t>
+          <t>-38,47; 143,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 187,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 233,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-69,49; 175,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 26,61</t>
+          <t>-8,74; 12,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 25,88</t>
+          <t>-7,93; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 29,52</t>
+          <t>-6,36; 17,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 15,02</t>
+          <t>-12,33; 7,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 11,7</t>
+          <t>-7,76; 11,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 9,43</t>
+          <t>-9,66; 8,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 14,99</t>
+          <t>-12,2; 4,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 15,52</t>
+          <t>-11,87; 6,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 15,75</t>
+          <t>-4,98; 9,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 8,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 7,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 3,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-24,13%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 208,62</t>
+          <t>-71,54; 374,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 186,58</t>
+          <t>-67,84; 436,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 217,23</t>
+          <t>-54,41; 457,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 112,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 85,26</t>
+          <t>-43,7; 127,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 75,38</t>
+          <t>-54,1; 86,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 93,56</t>
+          <t>-67,59; 51,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 99,39</t>
+          <t>-64,82; 69,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 101,97</t>
+          <t>-36,53; 100,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 100,46</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-47,66; 90,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-63,46; 45,39</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 15,12</t>
+          <t>-7,18; 12,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 13,44</t>
+          <t>-7,17; 12,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 13,53</t>
+          <t>-8,34; 11,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 19,7</t>
+          <t>-12,29; 4,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 5,59</t>
+          <t>-7,7; 9,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 8,5</t>
+          <t>-10,51; 5,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 12,35</t>
+          <t>-10,63; 5,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 6,84</t>
+          <t>-9,54; 7,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 7,24</t>
+          <t>-3,72; 9,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 5,35</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 5,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 3,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>-44,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,47%</t>
+          <t>-28,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-24,48%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 216,14</t>
+          <t>-54,63; 324,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 195,48</t>
+          <t>-57,58; 273,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 195,89</t>
+          <t>-64,45; 298,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 149,79</t>
+          <t>-100,0; 122,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 49,77</t>
+          <t>-55,54; 157,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 80,14</t>
+          <t>-72,72; 94,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 98,48</t>
+          <t>-73,29; 97,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 59,86</t>
+          <t>-66,77; 137,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 63,19</t>
+          <t>-30,87; 131,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-52,51; 77,6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-52,19; 73,96</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-65,74; 51,64</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,87</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 12,57</t>
+          <t>0,0; 7,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 24,12</t>
+          <t>1,46; 12,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 20,67</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 15,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 33,67</t>
+          <t>-5,98; 3,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 45,28</t>
+          <t>-1,94; 14,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 9,84</t>
+          <t>-1,97; 14,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 21,35</t>
+          <t>-9,28; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 23,51</t>
+          <t>-1,76; 3,32</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 9,94</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 9,57</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 0,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>101,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-33,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>-6,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>118,05%</t>
+          <t>222,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,74%</t>
+          <t>218,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>91,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>572,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>485,49%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1675,27 +1984,42 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-73,37; 687,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 1026,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-83,53; 268,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 501,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 593,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1808,6 +2147,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1861,6 +2215,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 17,62</t>
+          <t>-0,49; 14,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 16,3</t>
+          <t>0,61; 14,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,3; 23,33</t>
+          <t>3,43; 19,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 9,13</t>
+          <t>-4,51; 16,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 11,43</t>
+          <t>-5,51; 4,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,32</t>
+          <t>-4,59; 4,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 11,06</t>
+          <t>-5,71; 3,95</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 10,93</t>
+          <t>-8,45; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,24; 14,55</t>
+          <t>-1,35; 7,44</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 7,89</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 10,02</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 7,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>58,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>117,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 93,77</t>
+          <t>-9,91; 197,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 90,96</t>
+          <t>4,08; 222,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>13,89; 125,02</t>
+          <t>28,23; 292,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 36,97</t>
+          <t>-50,56; 274,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 45,3</t>
+          <t>-34,86; 39,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 47,02</t>
+          <t>-28,99; 45,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 48,72</t>
+          <t>-37,11; 35,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 47,58</t>
+          <t>-53,8; 5,3</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,04; 61,21</t>
+          <t>-11,44; 77,8</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 82,45</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 101,73</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 74,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
